--- a/curation/draft/crf/crf_specialization_LB.xlsx
+++ b/curation/draft/crf/crf_specialization_LB.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\crf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07B2501-7C33-40A9-94AE-6F3C093B98F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A005C-0D7E-4110-A43E-FC1743CBFC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection_LB" sheetId="1" r:id="rId1"/>
+    <sheet name="CRF_LB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_LB!$A$1:$AK$977</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CRF_LB!$A$1:$AK$977</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -4848,7 +4848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4878,9 +4878,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -62241,7 +62238,7 @@
       <c r="Q892" s="6" t="s">
         <v>1423</v>
       </c>
-      <c r="R892" s="13"/>
+      <c r="R892" s="11"/>
       <c r="S892">
         <v>8</v>
       </c>
@@ -63007,7 +63004,7 @@
       <c r="Q904" s="6" t="s">
         <v>1423</v>
       </c>
-      <c r="R904" s="13"/>
+      <c r="R904" s="11"/>
       <c r="S904">
         <v>8</v>
       </c>
@@ -63773,7 +63770,7 @@
       <c r="Q916" s="6" t="s">
         <v>1441</v>
       </c>
-      <c r="R916" s="13"/>
+      <c r="R916" s="11"/>
       <c r="S916">
         <v>8</v>
       </c>
@@ -64539,7 +64536,7 @@
       <c r="Q928" s="6" t="s">
         <v>1455</v>
       </c>
-      <c r="R928" s="13"/>
+      <c r="R928" s="11"/>
       <c r="S928">
         <v>8</v>
       </c>
@@ -65304,7 +65301,7 @@
       <c r="Q940" s="6" t="s">
         <v>1468</v>
       </c>
-      <c r="R940" s="13"/>
+      <c r="R940" s="11"/>
       <c r="S940">
         <v>8</v>
       </c>
@@ -65937,7 +65934,7 @@
       <c r="Q950" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="R950" s="13"/>
+      <c r="R950" s="11"/>
       <c r="S950">
         <v>7</v>
       </c>
